--- a/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,1; 43,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,92; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,12; 18,27</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-20,93%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,65%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,06; 79,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,92; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,02; 24,52</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,45; 5,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 4,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; 5,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 4,54</t>
         </is>
       </c>
     </row>
@@ -923,17 +923,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,11; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,11; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1074,27 +1074,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-10,12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-11,13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,14; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,36; -2,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; -1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,95%</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,14; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,36; -2,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; -1,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -1230,27 +1230,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>-21,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,68</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 67,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 65,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 24,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 29,39</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 208,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 184,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; 0,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; 32,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 41,49</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 34,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 27,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 18,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 16,48</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 53,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 38,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 23,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 20,23</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 20,76</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 12,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 1,63</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 1,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 7,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 4,48</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 26,18</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 15,46</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 1,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 1,22</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,63</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 4,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 61,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 33,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 158,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 52,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -2,87</t>
+          <t>-36,87; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,95; -1,89</t>
+          <t>-25,81; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -2,87</t>
+          <t>-36,87; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,95; -1,89</t>
+          <t>-25,81; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,27</t>
+          <t>0,0; 68,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 43,57</t>
+          <t>-34,76; 36,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 0,0</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 0,0</t>
+          <t>-58,17; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 33,8</t>
+          <t>-10,83; 30,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 18,27</t>
+          <t>-33,41; 16,27</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 158,2</t>
+          <t>0,0; 221,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 79,38</t>
+          <t>-35,45; 72,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 0,0</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 0,0</t>
+          <t>-58,17; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 52,54</t>
+          <t>-10,85; 46,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 24,52</t>
+          <t>-35,32; 21,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,49</t>
+          <t>0,0; 13,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 5,58</t>
+          <t>-14,45; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,15</t>
+          <t>0,0; 10,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 4,29</t>
+          <t>-10,59; 4,25</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,95</t>
+          <t>0,0; 15,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 5,71</t>
+          <t>-15,47; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,56</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 4,54</t>
+          <t>-10,67; 4,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,0</t>
+          <t>-23,9; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 0,0</t>
+          <t>-14,01; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,0</t>
+          <t>-23,9; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 0,0</t>
+          <t>-14,01; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 0,0</t>
+          <t>-39,39; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 0,0</t>
+          <t>-32,45; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 0,0</t>
+          <t>-25,78; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 0,0</t>
+          <t>-39,39; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 0,0</t>
+          <t>-32,45; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 0,0</t>
+          <t>-25,78; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 0,0</t>
+          <t>-80,66; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 0,0</t>
+          <t>-27,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 0,0</t>
+          <t>-80,66; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 0,0</t>
+          <t>-27,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,64</t>
+          <t>0,0; 61,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,03</t>
+          <t>0,0; 61,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 0,0</t>
+          <t>-22,2; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,0</t>
+          <t>-13,06; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 24,8</t>
+          <t>-6,23; 23,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 29,39</t>
+          <t>-3,65; 26,9</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 208,65</t>
+          <t>0,0; 157,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 184,87</t>
+          <t>0,0; 161,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 0,0</t>
+          <t>-22,2; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,0</t>
+          <t>-13,06; 0,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 32,48</t>
+          <t>-6,27; 30,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 41,49</t>
+          <t>-3,65; 37,49</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,22; 34,92</t>
+          <t>3,46; 39,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 27,1</t>
+          <t>-11,79; 28,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,88</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,28</t>
+          <t>0,0; 15,54</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,87; 18,83</t>
+          <t>3,1; 20,81</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 16,48</t>
+          <t>-1,96; 16,83</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3,32; 53,62</t>
+          <t>3,55; 66,26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 38,04</t>
+          <t>-11,86; 41,17</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,32</t>
+          <t>0,0; 20,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,45</t>
+          <t>0,0; 18,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,9; 23,19</t>
+          <t>3,19; 26,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 20,23</t>
+          <t>-1,96; 20,93</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>2,77; 19,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>-5,76; 13,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>-5,09; 1,38</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,18</t>
+          <t>-5,35; 1,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>-0,79; 7,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,48</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,18</t>
+          <t>2,85; 24,25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,46</t>
+          <t>-5,87; 16,46</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,67</t>
+          <t>-5,11; 1,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,22</t>
+          <t>-5,42; 1,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,63</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,78</t>
+          <t>-4,32; 4,81</t>
         </is>
       </c>
     </row>
